--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_unify_node_index/cnn_validation_SubRCM_pcc_by_Graph_Laplacian_filtering_unified_node.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_unify_node_index/cnn_validation_SubRCM_pcc_by_Graph_Laplacian_filtering_unified_node.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_unify_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066A2FE-4ECE-4F33-840C-B62E86FA2E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF815C1-2915-4C59-9420-46CB40E288AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
     <sheet name="summary_" sheetId="9" r:id="rId2"/>
-    <sheet name="GLF_sr_1" sheetId="1" r:id="rId3"/>
-    <sheet name="GLF_sr_0.75" sheetId="3" r:id="rId4"/>
-    <sheet name="GLF_sr_0.5" sheetId="4" r:id="rId5"/>
-    <sheet name="GLF_sr_0.3" sheetId="5" r:id="rId6"/>
-    <sheet name="GLF_sr_0.2" sheetId="6" r:id="rId7"/>
-    <sheet name="GLF_sr_0.1" sheetId="7" r:id="rId8"/>
-    <sheet name="GLF_sr_0.05" sheetId="8" r:id="rId9"/>
+    <sheet name="sr_1" sheetId="1" r:id="rId3"/>
+    <sheet name="sr_0.75" sheetId="3" r:id="rId4"/>
+    <sheet name="sr_0.5" sheetId="4" r:id="rId5"/>
+    <sheet name="sr_0.3" sheetId="5" r:id="rId6"/>
+    <sheet name="sr_0.2" sheetId="6" r:id="rId7"/>
+    <sheet name="sr_0.1" sheetId="7" r:id="rId8"/>
+    <sheet name="sr_0.05" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="39">
   <si>
     <t>Identifier</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>sub6ex1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3375,7 +3379,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>83.014212925717359</v>
